--- a/INTLINE/data/193/ABS/640101.xlsx
+++ b/INTLINE/data/193/ABS/640101.xlsx
@@ -12,89 +12,89 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2325806K">Data1!$B$1:$B$10,Data1!$B$11:$B$304</definedName>
-    <definedName name="A2325806K_Data">Data1!$B$11:$B$304</definedName>
-    <definedName name="A2325806K_Latest">Data1!$B$304</definedName>
-    <definedName name="A2325807L">Data1!$K$1:$K$10,Data1!$K$15:$K$304</definedName>
-    <definedName name="A2325807L_Data">Data1!$K$15:$K$304</definedName>
-    <definedName name="A2325807L_Latest">Data1!$K$304</definedName>
-    <definedName name="A2325810A">Data1!$T$1:$T$10,Data1!$T$12:$T$304</definedName>
-    <definedName name="A2325810A_Data">Data1!$T$12:$T$304</definedName>
-    <definedName name="A2325810A_Latest">Data1!$T$304</definedName>
-    <definedName name="A2325811C">Data1!$C$1:$C$10,Data1!$C$11:$C$304</definedName>
-    <definedName name="A2325811C_Data">Data1!$C$11:$C$304</definedName>
-    <definedName name="A2325811C_Latest">Data1!$C$304</definedName>
-    <definedName name="A2325812F">Data1!$L$1:$L$10,Data1!$L$15:$L$304</definedName>
-    <definedName name="A2325812F_Data">Data1!$L$15:$L$304</definedName>
-    <definedName name="A2325812F_Latest">Data1!$L$304</definedName>
-    <definedName name="A2325815L">Data1!$U$1:$U$10,Data1!$U$12:$U$304</definedName>
-    <definedName name="A2325815L_Data">Data1!$U$12:$U$304</definedName>
-    <definedName name="A2325815L_Latest">Data1!$U$304</definedName>
-    <definedName name="A2325816R">Data1!$D$1:$D$10,Data1!$D$11:$D$304</definedName>
-    <definedName name="A2325816R_Data">Data1!$D$11:$D$304</definedName>
-    <definedName name="A2325816R_Latest">Data1!$D$304</definedName>
-    <definedName name="A2325817T">Data1!$M$1:$M$10,Data1!$M$15:$M$304</definedName>
-    <definedName name="A2325817T_Data">Data1!$M$15:$M$304</definedName>
-    <definedName name="A2325817T_Latest">Data1!$M$304</definedName>
-    <definedName name="A2325820F">Data1!$V$1:$V$10,Data1!$V$12:$V$304</definedName>
-    <definedName name="A2325820F_Data">Data1!$V$12:$V$304</definedName>
-    <definedName name="A2325820F_Latest">Data1!$V$304</definedName>
-    <definedName name="A2325821J">Data1!$E$1:$E$10,Data1!$E$11:$E$304</definedName>
-    <definedName name="A2325821J_Data">Data1!$E$11:$E$304</definedName>
-    <definedName name="A2325821J_Latest">Data1!$E$304</definedName>
-    <definedName name="A2325822K">Data1!$N$1:$N$10,Data1!$N$15:$N$304</definedName>
-    <definedName name="A2325822K_Data">Data1!$N$15:$N$304</definedName>
-    <definedName name="A2325822K_Latest">Data1!$N$304</definedName>
-    <definedName name="A2325825T">Data1!$W$1:$W$10,Data1!$W$12:$W$304</definedName>
-    <definedName name="A2325825T_Data">Data1!$W$12:$W$304</definedName>
-    <definedName name="A2325825T_Latest">Data1!$W$304</definedName>
-    <definedName name="A2325826V">Data1!$F$1:$F$10,Data1!$F$11:$F$304</definedName>
-    <definedName name="A2325826V_Data">Data1!$F$11:$F$304</definedName>
-    <definedName name="A2325826V_Latest">Data1!$F$304</definedName>
-    <definedName name="A2325827W">Data1!$O$1:$O$10,Data1!$O$15:$O$304</definedName>
-    <definedName name="A2325827W_Data">Data1!$O$15:$O$304</definedName>
-    <definedName name="A2325827W_Latest">Data1!$O$304</definedName>
-    <definedName name="A2325830K">Data1!$X$1:$X$10,Data1!$X$12:$X$304</definedName>
-    <definedName name="A2325830K_Data">Data1!$X$12:$X$304</definedName>
-    <definedName name="A2325830K_Latest">Data1!$X$304</definedName>
-    <definedName name="A2325831L">Data1!$G$1:$G$10,Data1!$G$11:$G$304</definedName>
-    <definedName name="A2325831L_Data">Data1!$G$11:$G$304</definedName>
-    <definedName name="A2325831L_Latest">Data1!$G$304</definedName>
-    <definedName name="A2325832R">Data1!$P$1:$P$10,Data1!$P$15:$P$304</definedName>
-    <definedName name="A2325832R_Data">Data1!$P$15:$P$304</definedName>
-    <definedName name="A2325832R_Latest">Data1!$P$304</definedName>
-    <definedName name="A2325835W">Data1!$Y$1:$Y$10,Data1!$Y$12:$Y$304</definedName>
-    <definedName name="A2325835W_Data">Data1!$Y$12:$Y$304</definedName>
-    <definedName name="A2325835W_Latest">Data1!$Y$304</definedName>
-    <definedName name="A2325836X">Data1!$H$1:$H$10,Data1!$H$139:$H$304</definedName>
-    <definedName name="A2325836X_Data">Data1!$H$139:$H$304</definedName>
-    <definedName name="A2325836X_Latest">Data1!$H$304</definedName>
-    <definedName name="A2325837A">Data1!$Q$1:$Q$10,Data1!$Q$143:$Q$304</definedName>
-    <definedName name="A2325837A_Data">Data1!$Q$143:$Q$304</definedName>
-    <definedName name="A2325837A_Latest">Data1!$Q$304</definedName>
-    <definedName name="A2325840R">Data1!$Z$1:$Z$10,Data1!$Z$140:$Z$304</definedName>
-    <definedName name="A2325840R_Data">Data1!$Z$140:$Z$304</definedName>
-    <definedName name="A2325840R_Latest">Data1!$Z$304</definedName>
-    <definedName name="A2325841T">Data1!$I$1:$I$10,Data1!$I$11:$I$304</definedName>
-    <definedName name="A2325841T_Data">Data1!$I$11:$I$304</definedName>
-    <definedName name="A2325841T_Latest">Data1!$I$304</definedName>
-    <definedName name="A2325842V">Data1!$R$1:$R$10,Data1!$R$15:$R$304</definedName>
-    <definedName name="A2325842V_Data">Data1!$R$15:$R$304</definedName>
-    <definedName name="A2325842V_Latest">Data1!$R$304</definedName>
-    <definedName name="A2325845A">Data1!$AA$1:$AA$10,Data1!$AA$12:$AA$304</definedName>
-    <definedName name="A2325845A_Data">Data1!$AA$12:$AA$304</definedName>
-    <definedName name="A2325845A_Latest">Data1!$AA$304</definedName>
-    <definedName name="A2325846C">Data1!$J$1:$J$10,Data1!$J$11:$J$304</definedName>
-    <definedName name="A2325846C_Data">Data1!$J$11:$J$304</definedName>
-    <definedName name="A2325846C_Latest">Data1!$J$304</definedName>
-    <definedName name="A2325847F">Data1!$S$1:$S$10,Data1!$S$15:$S$304</definedName>
-    <definedName name="A2325847F_Data">Data1!$S$15:$S$304</definedName>
-    <definedName name="A2325847F_Latest">Data1!$S$304</definedName>
-    <definedName name="A2325850V">Data1!$AB$1:$AB$10,Data1!$AB$12:$AB$304</definedName>
-    <definedName name="A2325850V_Data">Data1!$AB$12:$AB$304</definedName>
-    <definedName name="A2325850V_Latest">Data1!$AB$304</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$304</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$304</definedName>
+    <definedName name="A2325806K">Data1!$B$1:$B$10,Data1!$B$11:$B$305</definedName>
+    <definedName name="A2325806K_Data">Data1!$B$11:$B$305</definedName>
+    <definedName name="A2325806K_Latest">Data1!$B$305</definedName>
+    <definedName name="A2325807L">Data1!$K$1:$K$10,Data1!$K$15:$K$305</definedName>
+    <definedName name="A2325807L_Data">Data1!$K$15:$K$305</definedName>
+    <definedName name="A2325807L_Latest">Data1!$K$305</definedName>
+    <definedName name="A2325810A">Data1!$T$1:$T$10,Data1!$T$12:$T$305</definedName>
+    <definedName name="A2325810A_Data">Data1!$T$12:$T$305</definedName>
+    <definedName name="A2325810A_Latest">Data1!$T$305</definedName>
+    <definedName name="A2325811C">Data1!$C$1:$C$10,Data1!$C$11:$C$305</definedName>
+    <definedName name="A2325811C_Data">Data1!$C$11:$C$305</definedName>
+    <definedName name="A2325811C_Latest">Data1!$C$305</definedName>
+    <definedName name="A2325812F">Data1!$L$1:$L$10,Data1!$L$15:$L$305</definedName>
+    <definedName name="A2325812F_Data">Data1!$L$15:$L$305</definedName>
+    <definedName name="A2325812F_Latest">Data1!$L$305</definedName>
+    <definedName name="A2325815L">Data1!$U$1:$U$10,Data1!$U$12:$U$305</definedName>
+    <definedName name="A2325815L_Data">Data1!$U$12:$U$305</definedName>
+    <definedName name="A2325815L_Latest">Data1!$U$305</definedName>
+    <definedName name="A2325816R">Data1!$D$1:$D$10,Data1!$D$11:$D$305</definedName>
+    <definedName name="A2325816R_Data">Data1!$D$11:$D$305</definedName>
+    <definedName name="A2325816R_Latest">Data1!$D$305</definedName>
+    <definedName name="A2325817T">Data1!$M$1:$M$10,Data1!$M$15:$M$305</definedName>
+    <definedName name="A2325817T_Data">Data1!$M$15:$M$305</definedName>
+    <definedName name="A2325817T_Latest">Data1!$M$305</definedName>
+    <definedName name="A2325820F">Data1!$V$1:$V$10,Data1!$V$12:$V$305</definedName>
+    <definedName name="A2325820F_Data">Data1!$V$12:$V$305</definedName>
+    <definedName name="A2325820F_Latest">Data1!$V$305</definedName>
+    <definedName name="A2325821J">Data1!$E$1:$E$10,Data1!$E$11:$E$305</definedName>
+    <definedName name="A2325821J_Data">Data1!$E$11:$E$305</definedName>
+    <definedName name="A2325821J_Latest">Data1!$E$305</definedName>
+    <definedName name="A2325822K">Data1!$N$1:$N$10,Data1!$N$15:$N$305</definedName>
+    <definedName name="A2325822K_Data">Data1!$N$15:$N$305</definedName>
+    <definedName name="A2325822K_Latest">Data1!$N$305</definedName>
+    <definedName name="A2325825T">Data1!$W$1:$W$10,Data1!$W$12:$W$305</definedName>
+    <definedName name="A2325825T_Data">Data1!$W$12:$W$305</definedName>
+    <definedName name="A2325825T_Latest">Data1!$W$305</definedName>
+    <definedName name="A2325826V">Data1!$F$1:$F$10,Data1!$F$11:$F$305</definedName>
+    <definedName name="A2325826V_Data">Data1!$F$11:$F$305</definedName>
+    <definedName name="A2325826V_Latest">Data1!$F$305</definedName>
+    <definedName name="A2325827W">Data1!$O$1:$O$10,Data1!$O$15:$O$305</definedName>
+    <definedName name="A2325827W_Data">Data1!$O$15:$O$305</definedName>
+    <definedName name="A2325827W_Latest">Data1!$O$305</definedName>
+    <definedName name="A2325830K">Data1!$X$1:$X$10,Data1!$X$12:$X$305</definedName>
+    <definedName name="A2325830K_Data">Data1!$X$12:$X$305</definedName>
+    <definedName name="A2325830K_Latest">Data1!$X$305</definedName>
+    <definedName name="A2325831L">Data1!$G$1:$G$10,Data1!$G$11:$G$305</definedName>
+    <definedName name="A2325831L_Data">Data1!$G$11:$G$305</definedName>
+    <definedName name="A2325831L_Latest">Data1!$G$305</definedName>
+    <definedName name="A2325832R">Data1!$P$1:$P$10,Data1!$P$15:$P$305</definedName>
+    <definedName name="A2325832R_Data">Data1!$P$15:$P$305</definedName>
+    <definedName name="A2325832R_Latest">Data1!$P$305</definedName>
+    <definedName name="A2325835W">Data1!$Y$1:$Y$10,Data1!$Y$12:$Y$305</definedName>
+    <definedName name="A2325835W_Data">Data1!$Y$12:$Y$305</definedName>
+    <definedName name="A2325835W_Latest">Data1!$Y$305</definedName>
+    <definedName name="A2325836X">Data1!$H$1:$H$10,Data1!$H$139:$H$305</definedName>
+    <definedName name="A2325836X_Data">Data1!$H$139:$H$305</definedName>
+    <definedName name="A2325836X_Latest">Data1!$H$305</definedName>
+    <definedName name="A2325837A">Data1!$Q$1:$Q$10,Data1!$Q$143:$Q$305</definedName>
+    <definedName name="A2325837A_Data">Data1!$Q$143:$Q$305</definedName>
+    <definedName name="A2325837A_Latest">Data1!$Q$305</definedName>
+    <definedName name="A2325840R">Data1!$Z$1:$Z$10,Data1!$Z$140:$Z$305</definedName>
+    <definedName name="A2325840R_Data">Data1!$Z$140:$Z$305</definedName>
+    <definedName name="A2325840R_Latest">Data1!$Z$305</definedName>
+    <definedName name="A2325841T">Data1!$I$1:$I$10,Data1!$I$11:$I$305</definedName>
+    <definedName name="A2325841T_Data">Data1!$I$11:$I$305</definedName>
+    <definedName name="A2325841T_Latest">Data1!$I$305</definedName>
+    <definedName name="A2325842V">Data1!$R$1:$R$10,Data1!$R$15:$R$305</definedName>
+    <definedName name="A2325842V_Data">Data1!$R$15:$R$305</definedName>
+    <definedName name="A2325842V_Latest">Data1!$R$305</definedName>
+    <definedName name="A2325845A">Data1!$AA$1:$AA$10,Data1!$AA$12:$AA$305</definedName>
+    <definedName name="A2325845A_Data">Data1!$AA$12:$AA$305</definedName>
+    <definedName name="A2325845A_Latest">Data1!$AA$305</definedName>
+    <definedName name="A2325846C">Data1!$J$1:$J$10,Data1!$J$11:$J$305</definedName>
+    <definedName name="A2325846C_Data">Data1!$J$11:$J$305</definedName>
+    <definedName name="A2325846C_Latest">Data1!$J$305</definedName>
+    <definedName name="A2325847F">Data1!$S$1:$S$10,Data1!$S$15:$S$305</definedName>
+    <definedName name="A2325847F_Data">Data1!$S$15:$S$305</definedName>
+    <definedName name="A2325847F_Latest">Data1!$S$305</definedName>
+    <definedName name="A2325850V">Data1!$AB$1:$AB$10,Data1!$AB$12:$AB$305</definedName>
+    <definedName name="A2325850V_Data">Data1!$AB$12:$AB$305</definedName>
+    <definedName name="A2325850V_Latest">Data1!$AB$305</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$305</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$305</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1325,10 +1325,10 @@
         <v>17777</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>36</v>
@@ -1357,10 +1357,10 @@
         <v>17777</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>36</v>
@@ -1389,10 +1389,10 @@
         <v>17777</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>36</v>
@@ -1421,10 +1421,10 @@
         <v>17777</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>36</v>
@@ -1453,10 +1453,10 @@
         <v>17777</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>36</v>
@@ -1485,10 +1485,10 @@
         <v>17777</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>36</v>
@@ -1517,10 +1517,10 @@
         <v>29465</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>36</v>
@@ -1549,10 +1549,10 @@
         <v>17777</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>36</v>
@@ -1581,10 +1581,10 @@
         <v>17777</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>36</v>
@@ -1613,10 +1613,10 @@
         <v>18142</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>49</v>
@@ -1645,10 +1645,10 @@
         <v>18142</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>49</v>
@@ -1677,10 +1677,10 @@
         <v>18142</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>49</v>
@@ -1709,10 +1709,10 @@
         <v>18142</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>49</v>
@@ -1741,10 +1741,10 @@
         <v>18142</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>49</v>
@@ -1773,10 +1773,10 @@
         <v>18142</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>49</v>
@@ -1805,10 +1805,10 @@
         <v>29830</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>49</v>
@@ -1837,10 +1837,10 @@
         <v>18142</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>49</v>
@@ -1869,10 +1869,10 @@
         <v>18142</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>49</v>
@@ -1901,10 +1901,10 @@
         <v>17868</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>49</v>
@@ -1933,10 +1933,10 @@
         <v>17868</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>49</v>
@@ -1965,10 +1965,10 @@
         <v>17868</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>49</v>
@@ -1997,10 +1997,10 @@
         <v>17868</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>49</v>
@@ -2029,10 +2029,10 @@
         <v>17868</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>49</v>
@@ -2061,10 +2061,10 @@
         <v>17868</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>49</v>
@@ -2093,10 +2093,10 @@
         <v>29556</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>49</v>
@@ -2125,10 +2125,10 @@
         <v>17868</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>49</v>
@@ -2157,10 +2157,10 @@
         <v>17868</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>49</v>
@@ -2222,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB304"/>
+  <dimension ref="A1:AB305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2840,85 +2840,85 @@
         <v>33</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -2926,85 +2926,85 @@
         <v>34</v>
       </c>
       <c r="B9" s="1">
+        <v>295</v>
+      </c>
+      <c r="C9" s="1">
+        <v>295</v>
+      </c>
+      <c r="D9" s="1">
+        <v>295</v>
+      </c>
+      <c r="E9" s="1">
+        <v>295</v>
+      </c>
+      <c r="F9" s="1">
+        <v>295</v>
+      </c>
+      <c r="G9" s="1">
+        <v>295</v>
+      </c>
+      <c r="H9" s="1">
+        <v>167</v>
+      </c>
+      <c r="I9" s="1">
+        <v>295</v>
+      </c>
+      <c r="J9" s="1">
+        <v>295</v>
+      </c>
+      <c r="K9" s="1">
+        <v>291</v>
+      </c>
+      <c r="L9" s="1">
+        <v>291</v>
+      </c>
+      <c r="M9" s="1">
+        <v>291</v>
+      </c>
+      <c r="N9" s="1">
+        <v>291</v>
+      </c>
+      <c r="O9" s="1">
+        <v>291</v>
+      </c>
+      <c r="P9" s="1">
+        <v>291</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>163</v>
+      </c>
+      <c r="R9" s="1">
+        <v>291</v>
+      </c>
+      <c r="S9" s="1">
+        <v>291</v>
+      </c>
+      <c r="T9" s="1">
         <v>294</v>
       </c>
-      <c r="C9" s="1">
+      <c r="U9" s="1">
         <v>294</v>
       </c>
-      <c r="D9" s="1">
+      <c r="V9" s="1">
         <v>294</v>
       </c>
-      <c r="E9" s="1">
+      <c r="W9" s="1">
         <v>294</v>
       </c>
-      <c r="F9" s="1">
+      <c r="X9" s="1">
         <v>294</v>
       </c>
-      <c r="G9" s="1">
+      <c r="Y9" s="1">
         <v>294</v>
       </c>
-      <c r="H9" s="1">
+      <c r="Z9" s="1">
         <v>166</v>
       </c>
-      <c r="I9" s="1">
+      <c r="AA9" s="1">
         <v>294</v>
       </c>
-      <c r="J9" s="1">
+      <c r="AB9" s="1">
         <v>294</v>
-      </c>
-      <c r="K9" s="1">
-        <v>290</v>
-      </c>
-      <c r="L9" s="1">
-        <v>290</v>
-      </c>
-      <c r="M9" s="1">
-        <v>290</v>
-      </c>
-      <c r="N9" s="1">
-        <v>290</v>
-      </c>
-      <c r="O9" s="1">
-        <v>290</v>
-      </c>
-      <c r="P9" s="1">
-        <v>290</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>162</v>
-      </c>
-      <c r="R9" s="1">
-        <v>290</v>
-      </c>
-      <c r="S9" s="1">
-        <v>290</v>
-      </c>
-      <c r="T9" s="1">
-        <v>293</v>
-      </c>
-      <c r="U9" s="1">
-        <v>293</v>
-      </c>
-      <c r="V9" s="1">
-        <v>293</v>
-      </c>
-      <c r="W9" s="1">
-        <v>293</v>
-      </c>
-      <c r="X9" s="1">
-        <v>293</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>293</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>165</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>293</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -27088,6 +27088,92 @@
       </c>
       <c r="AB304" s="8">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A305" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B305" s="8">
+        <v>123.7</v>
+      </c>
+      <c r="C305" s="8">
+        <v>124.2</v>
+      </c>
+      <c r="D305" s="8">
+        <v>125.3</v>
+      </c>
+      <c r="E305" s="8">
+        <v>122.7</v>
+      </c>
+      <c r="F305" s="8">
+        <v>123.3</v>
+      </c>
+      <c r="G305" s="8">
+        <v>125.4</v>
+      </c>
+      <c r="H305" s="8">
+        <v>120.7</v>
+      </c>
+      <c r="I305" s="8">
+        <v>123.6</v>
+      </c>
+      <c r="J305" s="8">
+        <v>123.9</v>
+      </c>
+      <c r="K305" s="8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L305" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="M305" s="8">
+        <v>6</v>
+      </c>
+      <c r="N305" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="O305" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="P305" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="Q305" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="R305" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="S305" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T305" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="U305" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V305" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W305" s="8">
+        <v>1.9</v>
+      </c>
+      <c r="X305" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="Y305" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z305" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="AA305" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB305" s="8">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
